--- a/Results/Categorization/dp-partial-ner-money.xlsx
+++ b/Results/Categorization/dp-partial-ner-money.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3251" uniqueCount="1797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3251" uniqueCount="1802">
   <si>
     <t>id</t>
   </si>
@@ -4027,144 +4027,153 @@
     <t>FOOD|FOOD</t>
   </si>
   <si>
+    <t>SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
     <t>FOOD|FOOD|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
     <t>PRICES|FOOD|SERVICE</t>
   </si>
   <si>
     <t>PRICES|PRICES</t>
   </si>
   <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
     <t>FOOD|SERVICE|AMBIENCE</t>
   </si>
   <si>
@@ -4174,6 +4183,9 @@
     <t>SERVICE|PRICES|PRICES|PRICES</t>
   </si>
   <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
     <t>AMBIENCE|SERVICE|SERVICE</t>
   </si>
   <si>
@@ -4186,9 +4198,6 @@
     <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
     <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
@@ -4198,127 +4207,133 @@
     <t>AMBIENCE|PRICES</t>
   </si>
   <si>
-    <t>PRICES|FOOD|AMBIENCE</t>
+    <t>PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|AMBIENCE</t>
   </si>
   <si>
     <t>SERVICE|FOOD|SERVICE|PRICES</t>
   </si>
   <si>
-    <t>FOOD|SERVICE|PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
+    <t>PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
     <t>PRICES|PRICES|AMBIENCE</t>
   </si>
   <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
     <t>SERVICE|PRICES|FOOD|PRICES</t>
   </si>
   <si>
-    <t>FOOD|AMBIENCE|PRICES</t>
-  </si>
-  <si>
     <t>AMBIENCE|SERVICE|SERVICE|AMBIENCE</t>
   </si>
   <si>
     <t>FOOD|AMBIENCE|PRICES|AMBIENCE|PRICES</t>
   </si>
   <si>
-    <t>PRICES|FOOD|PRICES</t>
+    <t>AMBIENCE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|PRICES</t>
   </si>
   <si>
     <t>PRICES|AMBIENCE|PRICES|PRICES|FOOD|AMBIENCE</t>
@@ -5814,7 +5829,7 @@
         <v>1093</v>
       </c>
       <c r="H2" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5837,10 +5852,10 @@
         <v>1336</v>
       </c>
       <c r="G3" t="s">
-        <v>1436</v>
+        <v>1441</v>
       </c>
       <c r="H3" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5863,10 +5878,10 @@
         <v>1336</v>
       </c>
       <c r="G4" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
       <c r="H4" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5889,10 +5904,10 @@
         <v>1336</v>
       </c>
       <c r="G5" t="s">
-        <v>1438</v>
+        <v>1443</v>
       </c>
       <c r="H5" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5915,10 +5930,10 @@
         <v>1337</v>
       </c>
       <c r="G6" t="s">
-        <v>1439</v>
+        <v>1444</v>
       </c>
       <c r="H6" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5941,10 +5956,10 @@
         <v>1338</v>
       </c>
       <c r="G7" t="s">
-        <v>1440</v>
+        <v>1445</v>
       </c>
       <c r="H7" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5967,10 +5982,10 @@
         <v>1336</v>
       </c>
       <c r="G8" t="s">
-        <v>1441</v>
+        <v>1446</v>
       </c>
       <c r="H8" t="s">
-        <v>1765</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5993,10 +6008,10 @@
         <v>1339</v>
       </c>
       <c r="G9" t="s">
-        <v>1442</v>
+        <v>1447</v>
       </c>
       <c r="H9" t="s">
-        <v>1766</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6019,10 +6034,10 @@
         <v>1293</v>
       </c>
       <c r="G10" t="s">
-        <v>1443</v>
+        <v>1448</v>
       </c>
       <c r="H10" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6045,10 +6060,10 @@
         <v>1340</v>
       </c>
       <c r="G11" t="s">
-        <v>1444</v>
+        <v>1449</v>
       </c>
       <c r="H11" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6071,10 +6086,10 @@
         <v>1275</v>
       </c>
       <c r="G12" t="s">
-        <v>1445</v>
+        <v>1450</v>
       </c>
       <c r="H12" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6097,10 +6112,10 @@
         <v>1341</v>
       </c>
       <c r="G13" t="s">
-        <v>1446</v>
+        <v>1451</v>
       </c>
       <c r="H13" t="s">
-        <v>1766</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6120,13 +6135,13 @@
         <v>1277</v>
       </c>
       <c r="F14" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="G14" t="s">
-        <v>1447</v>
+        <v>1452</v>
       </c>
       <c r="H14" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6149,10 +6164,10 @@
         <v>1277</v>
       </c>
       <c r="G15" t="s">
-        <v>1448</v>
+        <v>1453</v>
       </c>
       <c r="H15" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6175,10 +6190,10 @@
         <v>1284</v>
       </c>
       <c r="G16" t="s">
-        <v>1449</v>
+        <v>1454</v>
       </c>
       <c r="H16" t="s">
-        <v>1768</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6198,13 +6213,13 @@
         <v>1283</v>
       </c>
       <c r="F17" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="G17" t="s">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="H17" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6224,13 +6239,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="G18" t="s">
-        <v>1451</v>
+        <v>1456</v>
       </c>
       <c r="H18" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6256,7 +6271,7 @@
         <v>952</v>
       </c>
       <c r="H19" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6276,7 +6291,7 @@
         <v>1277</v>
       </c>
       <c r="H20" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6302,7 +6317,7 @@
         <v>952</v>
       </c>
       <c r="H21" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6328,7 +6343,7 @@
         <v>1124</v>
       </c>
       <c r="H22" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6354,7 +6369,7 @@
         <v>937</v>
       </c>
       <c r="H23" t="s">
-        <v>1765</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6374,13 +6389,13 @@
         <v>1275</v>
       </c>
       <c r="F24" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="G24" t="s">
-        <v>1452</v>
+        <v>1457</v>
       </c>
       <c r="H24" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6400,13 +6415,13 @@
         <v>1275</v>
       </c>
       <c r="F25" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="G25" t="s">
-        <v>1453</v>
+        <v>1458</v>
       </c>
       <c r="H25" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6432,7 +6447,7 @@
         <v>937</v>
       </c>
       <c r="H26" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6452,13 +6467,13 @@
         <v>1275</v>
       </c>
       <c r="F27" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="G27" t="s">
-        <v>1454</v>
+        <v>1459</v>
       </c>
       <c r="H27" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6478,13 +6493,13 @@
         <v>1277</v>
       </c>
       <c r="F28" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="G28" t="s">
-        <v>1455</v>
+        <v>1460</v>
       </c>
       <c r="H28" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6510,7 +6525,7 @@
         <v>1000</v>
       </c>
       <c r="H29" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6533,10 +6548,10 @@
         <v>1277</v>
       </c>
       <c r="G30" t="s">
-        <v>1456</v>
+        <v>1461</v>
       </c>
       <c r="H30" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6556,13 +6571,13 @@
         <v>1278</v>
       </c>
       <c r="F31" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G31" t="s">
-        <v>1457</v>
+        <v>1462</v>
       </c>
       <c r="H31" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6582,13 +6597,13 @@
         <v>1283</v>
       </c>
       <c r="F32" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G32" t="s">
-        <v>1458</v>
+        <v>1463</v>
       </c>
       <c r="H32" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6608,13 +6623,13 @@
         <v>1285</v>
       </c>
       <c r="F33" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G33" t="s">
-        <v>1459</v>
+        <v>1464</v>
       </c>
       <c r="H33" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6634,13 +6649,13 @@
         <v>1285</v>
       </c>
       <c r="F34" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G34" t="s">
-        <v>1460</v>
+        <v>1465</v>
       </c>
       <c r="H34" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6666,7 +6681,7 @@
         <v>963</v>
       </c>
       <c r="H35" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6692,7 +6707,7 @@
         <v>937</v>
       </c>
       <c r="H36" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6712,13 +6727,13 @@
         <v>1286</v>
       </c>
       <c r="F37" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G37" t="s">
-        <v>1461</v>
+        <v>1466</v>
       </c>
       <c r="H37" t="s">
-        <v>1770</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6738,13 +6753,13 @@
         <v>1275</v>
       </c>
       <c r="F38" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G38" t="s">
-        <v>1462</v>
+        <v>1467</v>
       </c>
       <c r="H38" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6770,7 +6785,7 @@
         <v>966</v>
       </c>
       <c r="H39" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6796,7 +6811,7 @@
         <v>937</v>
       </c>
       <c r="H40" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6816,13 +6831,13 @@
         <v>1284</v>
       </c>
       <c r="F41" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G41" t="s">
-        <v>1463</v>
+        <v>1468</v>
       </c>
       <c r="H41" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6842,13 +6857,13 @@
         <v>1284</v>
       </c>
       <c r="F42" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="G42" t="s">
-        <v>1464</v>
+        <v>1469</v>
       </c>
       <c r="H42" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6868,13 +6883,13 @@
         <v>1279</v>
       </c>
       <c r="F43" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G43" t="s">
-        <v>1465</v>
+        <v>1470</v>
       </c>
       <c r="H43" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6897,10 +6912,10 @@
         <v>1339</v>
       </c>
       <c r="G44" t="s">
-        <v>1466</v>
+        <v>1471</v>
       </c>
       <c r="H44" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6920,13 +6935,13 @@
         <v>1284</v>
       </c>
       <c r="F45" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G45" t="s">
-        <v>1467</v>
+        <v>1472</v>
       </c>
       <c r="H45" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6952,7 +6967,7 @@
         <v>972</v>
       </c>
       <c r="H46" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6975,10 +6990,10 @@
         <v>1339</v>
       </c>
       <c r="G47" t="s">
-        <v>1468</v>
+        <v>1473</v>
       </c>
       <c r="H47" t="s">
-        <v>1771</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6998,13 +7013,13 @@
         <v>1288</v>
       </c>
       <c r="F48" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="G48" t="s">
-        <v>1469</v>
+        <v>1474</v>
       </c>
       <c r="H48" t="s">
-        <v>1772</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -7027,10 +7042,10 @@
         <v>1336</v>
       </c>
       <c r="G49" t="s">
-        <v>1470</v>
+        <v>1475</v>
       </c>
       <c r="H49" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7056,7 +7071,7 @@
         <v>993</v>
       </c>
       <c r="H50" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7079,10 +7094,10 @@
         <v>1336</v>
       </c>
       <c r="G51" t="s">
-        <v>1471</v>
+        <v>1476</v>
       </c>
       <c r="H51" t="s">
-        <v>1773</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7102,13 +7117,13 @@
         <v>1277</v>
       </c>
       <c r="F52" t="s">
-        <v>1339</v>
+        <v>1358</v>
       </c>
       <c r="G52" t="s">
-        <v>1472</v>
+        <v>1477</v>
       </c>
       <c r="H52" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7128,13 +7143,13 @@
         <v>1281</v>
       </c>
       <c r="F53" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="G53" t="s">
-        <v>1473</v>
+        <v>1478</v>
       </c>
       <c r="H53" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7157,10 +7172,10 @@
         <v>1339</v>
       </c>
       <c r="G54" t="s">
-        <v>1474</v>
+        <v>1479</v>
       </c>
       <c r="H54" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7183,10 +7198,10 @@
         <v>1336</v>
       </c>
       <c r="G55" t="s">
-        <v>1475</v>
+        <v>1480</v>
       </c>
       <c r="H55" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7209,10 +7224,10 @@
         <v>1336</v>
       </c>
       <c r="G56" t="s">
-        <v>1476</v>
+        <v>1481</v>
       </c>
       <c r="H56" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7232,13 +7247,13 @@
         <v>1289</v>
       </c>
       <c r="F57" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="G57" t="s">
-        <v>1477</v>
+        <v>1482</v>
       </c>
       <c r="H57" t="s">
-        <v>1774</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7258,13 +7273,13 @@
         <v>1290</v>
       </c>
       <c r="F58" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="G58" t="s">
-        <v>1478</v>
+        <v>1483</v>
       </c>
       <c r="H58" t="s">
-        <v>1775</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7284,13 +7299,13 @@
         <v>1275</v>
       </c>
       <c r="F59" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="G59" t="s">
-        <v>1479</v>
+        <v>1484</v>
       </c>
       <c r="H59" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7310,13 +7325,13 @@
         <v>1278</v>
       </c>
       <c r="F60" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G60" t="s">
-        <v>1480</v>
+        <v>1485</v>
       </c>
       <c r="H60" t="s">
-        <v>1776</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7336,13 +7351,13 @@
         <v>1291</v>
       </c>
       <c r="F61" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="G61" t="s">
-        <v>1481</v>
+        <v>1486</v>
       </c>
       <c r="H61" t="s">
-        <v>1774</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7362,13 +7377,13 @@
         <v>1275</v>
       </c>
       <c r="F62" t="s">
-        <v>1360</v>
+        <v>1340</v>
       </c>
       <c r="G62" t="s">
-        <v>1482</v>
+        <v>1487</v>
       </c>
       <c r="H62" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7388,13 +7403,13 @@
         <v>1277</v>
       </c>
       <c r="F63" t="s">
-        <v>1336</v>
+        <v>1362</v>
       </c>
       <c r="G63" t="s">
-        <v>1483</v>
+        <v>1488</v>
       </c>
       <c r="H63" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7414,13 +7429,13 @@
         <v>1289</v>
       </c>
       <c r="F64" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="G64" t="s">
-        <v>1484</v>
+        <v>1489</v>
       </c>
       <c r="H64" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7440,13 +7455,13 @@
         <v>1275</v>
       </c>
       <c r="F65" t="s">
-        <v>1340</v>
+        <v>1346</v>
       </c>
       <c r="G65" t="s">
-        <v>1485</v>
+        <v>1490</v>
       </c>
       <c r="H65" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7469,10 +7484,10 @@
         <v>1336</v>
       </c>
       <c r="G66" t="s">
-        <v>1486</v>
+        <v>1491</v>
       </c>
       <c r="H66" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7498,7 +7513,7 @@
         <v>952</v>
       </c>
       <c r="H67" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7524,7 +7539,7 @@
         <v>991</v>
       </c>
       <c r="H68" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7550,7 +7565,7 @@
         <v>993</v>
       </c>
       <c r="H69" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7576,7 +7591,7 @@
         <v>993</v>
       </c>
       <c r="H70" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7596,13 +7611,13 @@
         <v>1294</v>
       </c>
       <c r="F71" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G71" t="s">
-        <v>1487</v>
+        <v>1492</v>
       </c>
       <c r="H71" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7622,13 +7637,13 @@
         <v>1277</v>
       </c>
       <c r="F72" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="G72" t="s">
-        <v>1488</v>
+        <v>1493</v>
       </c>
       <c r="H72" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7651,10 +7666,10 @@
         <v>1339</v>
       </c>
       <c r="G73" t="s">
-        <v>1489</v>
+        <v>1494</v>
       </c>
       <c r="H73" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7674,13 +7689,13 @@
         <v>1295</v>
       </c>
       <c r="F74" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="G74" t="s">
-        <v>1490</v>
+        <v>1495</v>
       </c>
       <c r="H74" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7706,7 +7721,7 @@
         <v>952</v>
       </c>
       <c r="H75" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7726,13 +7741,13 @@
         <v>1283</v>
       </c>
       <c r="F76" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="G76" t="s">
-        <v>1491</v>
+        <v>1496</v>
       </c>
       <c r="H76" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7758,7 +7773,7 @@
         <v>989</v>
       </c>
       <c r="H77" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7784,7 +7799,7 @@
         <v>999</v>
       </c>
       <c r="H78" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7807,10 +7822,10 @@
         <v>1336</v>
       </c>
       <c r="G79" t="s">
-        <v>1492</v>
+        <v>1497</v>
       </c>
       <c r="H79" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7830,13 +7845,13 @@
         <v>1288</v>
       </c>
       <c r="F80" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G80" t="s">
-        <v>1493</v>
+        <v>1498</v>
       </c>
       <c r="H80" t="s">
-        <v>1777</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7859,10 +7874,10 @@
         <v>1336</v>
       </c>
       <c r="G81" t="s">
-        <v>1494</v>
+        <v>1499</v>
       </c>
       <c r="H81" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7888,7 +7903,7 @@
         <v>937</v>
       </c>
       <c r="H82" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7911,10 +7926,10 @@
         <v>1336</v>
       </c>
       <c r="G83" t="s">
-        <v>1495</v>
+        <v>1500</v>
       </c>
       <c r="H83" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7940,7 +7955,7 @@
         <v>1069</v>
       </c>
       <c r="H84" t="s">
-        <v>1776</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7966,7 +7981,7 @@
         <v>937</v>
       </c>
       <c r="H85" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -7986,13 +8001,13 @@
         <v>1277</v>
       </c>
       <c r="F86" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G86" t="s">
-        <v>1496</v>
+        <v>1501</v>
       </c>
       <c r="H86" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -8015,10 +8030,10 @@
         <v>1336</v>
       </c>
       <c r="G87" t="s">
-        <v>1497</v>
+        <v>1502</v>
       </c>
       <c r="H87" t="s">
-        <v>1778</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8041,10 +8056,10 @@
         <v>1277</v>
       </c>
       <c r="G88" t="s">
-        <v>1498</v>
+        <v>1503</v>
       </c>
       <c r="H88" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8064,13 +8079,13 @@
         <v>1284</v>
       </c>
       <c r="F89" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G89" t="s">
-        <v>1499</v>
+        <v>1504</v>
       </c>
       <c r="H89" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8090,13 +8105,13 @@
         <v>1283</v>
       </c>
       <c r="F90" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="G90" t="s">
-        <v>1500</v>
+        <v>1505</v>
       </c>
       <c r="H90" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8119,10 +8134,10 @@
         <v>1336</v>
       </c>
       <c r="G91" t="s">
-        <v>1501</v>
+        <v>1506</v>
       </c>
       <c r="H91" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8142,13 +8157,13 @@
         <v>1297</v>
       </c>
       <c r="F92" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="G92" t="s">
-        <v>1502</v>
+        <v>1507</v>
       </c>
       <c r="H92" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8171,10 +8186,10 @@
         <v>1365</v>
       </c>
       <c r="G93" t="s">
-        <v>1503</v>
+        <v>1508</v>
       </c>
       <c r="H93" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8197,10 +8212,10 @@
         <v>1336</v>
       </c>
       <c r="G94" t="s">
-        <v>1504</v>
+        <v>1509</v>
       </c>
       <c r="H94" t="s">
-        <v>1779</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8220,13 +8235,13 @@
         <v>1276</v>
       </c>
       <c r="F95" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G95" t="s">
-        <v>1505</v>
+        <v>1510</v>
       </c>
       <c r="H95" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8246,13 +8261,13 @@
         <v>1288</v>
       </c>
       <c r="F96" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G96" t="s">
-        <v>1506</v>
+        <v>1511</v>
       </c>
       <c r="H96" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8275,10 +8290,10 @@
         <v>1366</v>
       </c>
       <c r="G97" t="s">
-        <v>1507</v>
+        <v>1512</v>
       </c>
       <c r="H97" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8298,13 +8313,13 @@
         <v>1277</v>
       </c>
       <c r="F98" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G98" t="s">
-        <v>1508</v>
+        <v>1513</v>
       </c>
       <c r="H98" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8327,10 +8342,10 @@
         <v>1336</v>
       </c>
       <c r="G99" t="s">
-        <v>1509</v>
+        <v>1514</v>
       </c>
       <c r="H99" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8353,10 +8368,10 @@
         <v>1275</v>
       </c>
       <c r="G100" t="s">
-        <v>1510</v>
+        <v>1515</v>
       </c>
       <c r="H100" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8376,13 +8391,13 @@
         <v>1278</v>
       </c>
       <c r="F101" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G101" t="s">
-        <v>1511</v>
+        <v>1516</v>
       </c>
       <c r="H101" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8405,10 +8420,10 @@
         <v>1277</v>
       </c>
       <c r="G102" t="s">
-        <v>1512</v>
+        <v>1517</v>
       </c>
       <c r="H102" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8431,10 +8446,10 @@
         <v>1336</v>
       </c>
       <c r="G103" t="s">
-        <v>1513</v>
+        <v>1518</v>
       </c>
       <c r="H103" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8457,10 +8472,10 @@
         <v>1367</v>
       </c>
       <c r="G104" t="s">
-        <v>1514</v>
+        <v>1519</v>
       </c>
       <c r="H104" t="s">
-        <v>1765</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8483,10 +8498,10 @@
         <v>1284</v>
       </c>
       <c r="G105" t="s">
-        <v>1515</v>
+        <v>1520</v>
       </c>
       <c r="H105" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8512,7 +8527,7 @@
         <v>972</v>
       </c>
       <c r="H106" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8532,13 +8547,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="G107" t="s">
-        <v>1516</v>
+        <v>1521</v>
       </c>
       <c r="H107" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8564,7 +8579,7 @@
         <v>935</v>
       </c>
       <c r="H108" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8587,10 +8602,10 @@
         <v>1336</v>
       </c>
       <c r="G109" t="s">
-        <v>1517</v>
+        <v>1522</v>
       </c>
       <c r="H109" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8613,10 +8628,10 @@
         <v>1368</v>
       </c>
       <c r="G110" t="s">
-        <v>1518</v>
+        <v>1523</v>
       </c>
       <c r="H110" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8636,13 +8651,13 @@
         <v>1295</v>
       </c>
       <c r="F111" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="G111" t="s">
-        <v>1519</v>
+        <v>1524</v>
       </c>
       <c r="H111" t="s">
-        <v>1780</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8665,10 +8680,10 @@
         <v>1277</v>
       </c>
       <c r="G112" t="s">
-        <v>1520</v>
+        <v>1525</v>
       </c>
       <c r="H112" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8694,7 +8709,7 @@
         <v>1029</v>
       </c>
       <c r="H113" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8720,7 +8735,7 @@
         <v>937</v>
       </c>
       <c r="H114" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8743,10 +8758,10 @@
         <v>1339</v>
       </c>
       <c r="G115" t="s">
-        <v>1521</v>
+        <v>1526</v>
       </c>
       <c r="H115" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8772,7 +8787,7 @@
         <v>1069</v>
       </c>
       <c r="H116" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8798,7 +8813,7 @@
         <v>952</v>
       </c>
       <c r="H117" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8818,13 +8833,13 @@
         <v>1295</v>
       </c>
       <c r="F118" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="G118" t="s">
-        <v>1519</v>
+        <v>1524</v>
       </c>
       <c r="H118" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8847,10 +8862,10 @@
         <v>1341</v>
       </c>
       <c r="G119" t="s">
-        <v>1522</v>
+        <v>1527</v>
       </c>
       <c r="H119" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8873,10 +8888,10 @@
         <v>1339</v>
       </c>
       <c r="G120" t="s">
-        <v>1523</v>
+        <v>1528</v>
       </c>
       <c r="H120" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8896,13 +8911,13 @@
         <v>1295</v>
       </c>
       <c r="F121" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G121" t="s">
-        <v>1524</v>
+        <v>1529</v>
       </c>
       <c r="H121" t="s">
-        <v>1777</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8925,10 +8940,10 @@
         <v>1336</v>
       </c>
       <c r="G122" t="s">
-        <v>1525</v>
+        <v>1530</v>
       </c>
       <c r="H122" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8951,10 +8966,10 @@
         <v>1369</v>
       </c>
       <c r="G123" t="s">
-        <v>1526</v>
+        <v>1531</v>
       </c>
       <c r="H123" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -8977,10 +8992,10 @@
         <v>1370</v>
       </c>
       <c r="G124" t="s">
-        <v>1527</v>
+        <v>1532</v>
       </c>
       <c r="H124" t="s">
-        <v>1774</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -9006,7 +9021,7 @@
         <v>935</v>
       </c>
       <c r="H125" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -9029,10 +9044,10 @@
         <v>1371</v>
       </c>
       <c r="G126" t="s">
-        <v>1528</v>
+        <v>1533</v>
       </c>
       <c r="H126" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9058,7 +9073,7 @@
         <v>1039</v>
       </c>
       <c r="H127" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9078,13 +9093,13 @@
         <v>1277</v>
       </c>
       <c r="F128" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G128" t="s">
-        <v>1529</v>
+        <v>1534</v>
       </c>
       <c r="H128" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9107,10 +9122,10 @@
         <v>1336</v>
       </c>
       <c r="G129" t="s">
-        <v>1530</v>
+        <v>1535</v>
       </c>
       <c r="H129" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9133,10 +9148,10 @@
         <v>1336</v>
       </c>
       <c r="G130" t="s">
-        <v>1531</v>
+        <v>1536</v>
       </c>
       <c r="H130" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9162,7 +9177,7 @@
         <v>952</v>
       </c>
       <c r="H131" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9185,10 +9200,10 @@
         <v>1336</v>
       </c>
       <c r="G132" t="s">
-        <v>1532</v>
+        <v>1537</v>
       </c>
       <c r="H132" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9208,13 +9223,13 @@
         <v>1276</v>
       </c>
       <c r="F133" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="G133" t="s">
-        <v>1533</v>
+        <v>1538</v>
       </c>
       <c r="H133" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9237,10 +9252,10 @@
         <v>1372</v>
       </c>
       <c r="G134" t="s">
-        <v>1534</v>
+        <v>1539</v>
       </c>
       <c r="H134" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9263,10 +9278,10 @@
         <v>1373</v>
       </c>
       <c r="G135" t="s">
-        <v>1535</v>
+        <v>1540</v>
       </c>
       <c r="H135" t="s">
-        <v>1765</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9292,7 +9307,7 @@
         <v>1241</v>
       </c>
       <c r="H136" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9318,7 +9333,7 @@
         <v>937</v>
       </c>
       <c r="H137" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9338,13 +9353,13 @@
         <v>1297</v>
       </c>
       <c r="F138" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="G138" t="s">
-        <v>1536</v>
+        <v>1541</v>
       </c>
       <c r="H138" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9367,10 +9382,10 @@
         <v>1374</v>
       </c>
       <c r="G139" t="s">
-        <v>1537</v>
+        <v>1542</v>
       </c>
       <c r="H139" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9396,7 +9411,7 @@
         <v>1050</v>
       </c>
       <c r="H140" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9416,13 +9431,13 @@
         <v>1284</v>
       </c>
       <c r="F141" t="s">
-        <v>1355</v>
+        <v>1348</v>
       </c>
       <c r="G141" t="s">
-        <v>1538</v>
+        <v>1543</v>
       </c>
       <c r="H141" t="s">
-        <v>1765</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9445,10 +9460,10 @@
         <v>1375</v>
       </c>
       <c r="G142" t="s">
-        <v>1539</v>
+        <v>1544</v>
       </c>
       <c r="H142" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9474,7 +9489,7 @@
         <v>1029</v>
       </c>
       <c r="H143" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9494,13 +9509,13 @@
         <v>1297</v>
       </c>
       <c r="F144" t="s">
-        <v>1372</v>
+        <v>1376</v>
       </c>
       <c r="G144" t="s">
-        <v>1540</v>
+        <v>1545</v>
       </c>
       <c r="H144" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9520,13 +9535,13 @@
         <v>1281</v>
       </c>
       <c r="F145" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G145" t="s">
-        <v>1541</v>
+        <v>1546</v>
       </c>
       <c r="H145" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9552,7 +9567,7 @@
         <v>1054</v>
       </c>
       <c r="H146" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9572,13 +9587,13 @@
         <v>1277</v>
       </c>
       <c r="F147" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="G147" t="s">
-        <v>1542</v>
+        <v>1547</v>
       </c>
       <c r="H147" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9598,13 +9613,13 @@
         <v>1283</v>
       </c>
       <c r="F148" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="G148" t="s">
-        <v>1543</v>
+        <v>1548</v>
       </c>
       <c r="H148" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9627,10 +9642,10 @@
         <v>1339</v>
       </c>
       <c r="G149" t="s">
-        <v>1544</v>
+        <v>1549</v>
       </c>
       <c r="H149" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9650,13 +9665,13 @@
         <v>1281</v>
       </c>
       <c r="F150" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="G150" t="s">
-        <v>1545</v>
+        <v>1550</v>
       </c>
       <c r="H150" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9676,13 +9691,13 @@
         <v>1301</v>
       </c>
       <c r="F151" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="G151" t="s">
-        <v>1546</v>
+        <v>1551</v>
       </c>
       <c r="H151" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9708,7 +9723,7 @@
         <v>935</v>
       </c>
       <c r="H152" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9731,10 +9746,10 @@
         <v>1339</v>
       </c>
       <c r="G153" t="s">
-        <v>1547</v>
+        <v>1552</v>
       </c>
       <c r="H153" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9757,10 +9772,10 @@
         <v>1336</v>
       </c>
       <c r="G154" t="s">
-        <v>1548</v>
+        <v>1553</v>
       </c>
       <c r="H154" t="s">
-        <v>1781</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9783,10 +9798,10 @@
         <v>1366</v>
       </c>
       <c r="G155" t="s">
-        <v>1549</v>
+        <v>1554</v>
       </c>
       <c r="H155" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9806,13 +9821,13 @@
         <v>1302</v>
       </c>
       <c r="F156" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="G156" t="s">
-        <v>1550</v>
+        <v>1555</v>
       </c>
       <c r="H156" t="s">
-        <v>1782</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9835,10 +9850,10 @@
         <v>1336</v>
       </c>
       <c r="G157" t="s">
-        <v>1551</v>
+        <v>1556</v>
       </c>
       <c r="H157" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9858,13 +9873,13 @@
         <v>1303</v>
       </c>
       <c r="F158" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="G158" t="s">
-        <v>1552</v>
+        <v>1557</v>
       </c>
       <c r="H158" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9887,10 +9902,10 @@
         <v>1339</v>
       </c>
       <c r="G159" t="s">
-        <v>1553</v>
+        <v>1558</v>
       </c>
       <c r="H159" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9910,13 +9925,13 @@
         <v>1277</v>
       </c>
       <c r="F160" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G160" t="s">
-        <v>1554</v>
+        <v>1559</v>
       </c>
       <c r="H160" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9942,7 +9957,7 @@
         <v>1066</v>
       </c>
       <c r="H161" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9965,10 +9980,10 @@
         <v>1277</v>
       </c>
       <c r="G162" t="s">
-        <v>1555</v>
+        <v>1560</v>
       </c>
       <c r="H162" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9988,13 +10003,13 @@
         <v>1284</v>
       </c>
       <c r="F163" t="s">
-        <v>1336</v>
+        <v>1348</v>
       </c>
       <c r="G163" t="s">
-        <v>1556</v>
+        <v>1561</v>
       </c>
       <c r="H163" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -10020,7 +10035,7 @@
         <v>1069</v>
       </c>
       <c r="H164" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10046,7 +10061,7 @@
         <v>1099</v>
       </c>
       <c r="H165" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10072,7 +10087,7 @@
         <v>1066</v>
       </c>
       <c r="H166" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10098,7 +10113,7 @@
         <v>1066</v>
       </c>
       <c r="H167" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10124,7 +10139,7 @@
         <v>980</v>
       </c>
       <c r="H168" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10150,7 +10165,7 @@
         <v>1000</v>
       </c>
       <c r="H169" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10170,13 +10185,13 @@
         <v>1285</v>
       </c>
       <c r="F170" t="s">
-        <v>1369</v>
+        <v>1339</v>
       </c>
       <c r="G170" t="s">
-        <v>1557</v>
+        <v>1562</v>
       </c>
       <c r="H170" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10199,10 +10214,10 @@
         <v>1277</v>
       </c>
       <c r="G171" t="s">
-        <v>1558</v>
+        <v>1563</v>
       </c>
       <c r="H171" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10222,13 +10237,13 @@
         <v>1278</v>
       </c>
       <c r="F172" t="s">
-        <v>1337</v>
+        <v>1382</v>
       </c>
       <c r="G172" t="s">
-        <v>1559</v>
+        <v>1564</v>
       </c>
       <c r="H172" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10248,13 +10263,13 @@
         <v>1304</v>
       </c>
       <c r="F173" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="G173" t="s">
-        <v>1560</v>
+        <v>1565</v>
       </c>
       <c r="H173" t="s">
-        <v>1774</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10280,7 +10295,7 @@
         <v>1069</v>
       </c>
       <c r="H174" t="s">
-        <v>1777</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10300,13 +10315,13 @@
         <v>1305</v>
       </c>
       <c r="F175" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="G175" t="s">
-        <v>1561</v>
+        <v>1566</v>
       </c>
       <c r="H175" t="s">
-        <v>1774</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10329,10 +10344,10 @@
         <v>1339</v>
       </c>
       <c r="G176" t="s">
-        <v>1562</v>
+        <v>1567</v>
       </c>
       <c r="H176" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10355,10 +10370,10 @@
         <v>1277</v>
       </c>
       <c r="G177" t="s">
-        <v>1563</v>
+        <v>1568</v>
       </c>
       <c r="H177" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10381,10 +10396,10 @@
         <v>1336</v>
       </c>
       <c r="G178" t="s">
-        <v>1564</v>
+        <v>1569</v>
       </c>
       <c r="H178" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10407,10 +10422,10 @@
         <v>1339</v>
       </c>
       <c r="G179" t="s">
-        <v>1565</v>
+        <v>1570</v>
       </c>
       <c r="H179" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10430,13 +10445,13 @@
         <v>1306</v>
       </c>
       <c r="F180" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G180" t="s">
-        <v>1493</v>
+        <v>1498</v>
       </c>
       <c r="H180" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10456,13 +10471,13 @@
         <v>1275</v>
       </c>
       <c r="F181" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="G181" t="s">
-        <v>1566</v>
+        <v>1571</v>
       </c>
       <c r="H181" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10482,13 +10497,13 @@
         <v>1283</v>
       </c>
       <c r="F182" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="G182" t="s">
-        <v>1500</v>
+        <v>1505</v>
       </c>
       <c r="H182" t="s">
-        <v>1772</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10508,13 +10523,13 @@
         <v>1307</v>
       </c>
       <c r="F183" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="G183" t="s">
-        <v>1500</v>
+        <v>1505</v>
       </c>
       <c r="H183" t="s">
-        <v>1783</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10534,13 +10549,13 @@
         <v>1308</v>
       </c>
       <c r="F184" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="G184" t="s">
-        <v>1567</v>
+        <v>1572</v>
       </c>
       <c r="H184" t="s">
-        <v>1774</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10560,13 +10575,13 @@
         <v>1292</v>
       </c>
       <c r="F185" t="s">
-        <v>1352</v>
+        <v>1342</v>
       </c>
       <c r="G185" t="s">
-        <v>1568</v>
+        <v>1573</v>
       </c>
       <c r="H185" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10589,10 +10604,10 @@
         <v>1375</v>
       </c>
       <c r="G186" t="s">
-        <v>1569</v>
+        <v>1574</v>
       </c>
       <c r="H186" t="s">
-        <v>1777</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10612,13 +10627,13 @@
         <v>1277</v>
       </c>
       <c r="F187" t="s">
-        <v>1339</v>
+        <v>1385</v>
       </c>
       <c r="G187" t="s">
-        <v>1570</v>
+        <v>1575</v>
       </c>
       <c r="H187" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10644,7 +10659,7 @@
         <v>1090</v>
       </c>
       <c r="H188" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10667,10 +10682,10 @@
         <v>1277</v>
       </c>
       <c r="G189" t="s">
-        <v>1571</v>
+        <v>1576</v>
       </c>
       <c r="H189" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10690,13 +10705,13 @@
         <v>1309</v>
       </c>
       <c r="F190" t="s">
-        <v>1358</v>
+        <v>1340</v>
       </c>
       <c r="G190" t="s">
-        <v>1572</v>
+        <v>1577</v>
       </c>
       <c r="H190" t="s">
-        <v>1777</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10722,7 +10737,7 @@
         <v>1093</v>
       </c>
       <c r="H191" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10748,7 +10763,7 @@
         <v>937</v>
       </c>
       <c r="H192" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10774,7 +10789,7 @@
         <v>993</v>
       </c>
       <c r="H193" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10800,7 +10815,7 @@
         <v>1099</v>
       </c>
       <c r="H194" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10826,7 +10841,7 @@
         <v>937</v>
       </c>
       <c r="H195" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10849,10 +10864,10 @@
         <v>1339</v>
       </c>
       <c r="G196" t="s">
-        <v>1573</v>
+        <v>1578</v>
       </c>
       <c r="H196" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10872,13 +10887,13 @@
         <v>1310</v>
       </c>
       <c r="F197" t="s">
-        <v>1360</v>
+        <v>1340</v>
       </c>
       <c r="G197" t="s">
-        <v>1574</v>
+        <v>1579</v>
       </c>
       <c r="H197" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10898,13 +10913,13 @@
         <v>1283</v>
       </c>
       <c r="F198" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="G198" t="s">
-        <v>1575</v>
+        <v>1580</v>
       </c>
       <c r="H198" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10927,10 +10942,10 @@
         <v>1336</v>
       </c>
       <c r="G199" t="s">
-        <v>1576</v>
+        <v>1581</v>
       </c>
       <c r="H199" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10956,7 +10971,7 @@
         <v>972</v>
       </c>
       <c r="H200" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10982,7 +10997,7 @@
         <v>1099</v>
       </c>
       <c r="H201" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -11008,7 +11023,7 @@
         <v>1000</v>
       </c>
       <c r="H202" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -11028,7 +11043,7 @@
         <v>1296</v>
       </c>
       <c r="H203" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11048,13 +11063,13 @@
         <v>1277</v>
       </c>
       <c r="F204" t="s">
-        <v>1352</v>
+        <v>1342</v>
       </c>
       <c r="G204" t="s">
-        <v>1577</v>
+        <v>1582</v>
       </c>
       <c r="H204" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11080,7 +11095,7 @@
         <v>1050</v>
       </c>
       <c r="H205" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11100,13 +11115,13 @@
         <v>1284</v>
       </c>
       <c r="F206" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G206" t="s">
-        <v>1578</v>
+        <v>1583</v>
       </c>
       <c r="H206" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11126,13 +11141,13 @@
         <v>1308</v>
       </c>
       <c r="F207" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="G207" t="s">
-        <v>1579</v>
+        <v>1584</v>
       </c>
       <c r="H207" t="s">
-        <v>1774</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11158,7 +11173,7 @@
         <v>1093</v>
       </c>
       <c r="H208" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11181,10 +11196,10 @@
         <v>1336</v>
       </c>
       <c r="G209" t="s">
-        <v>1580</v>
+        <v>1585</v>
       </c>
       <c r="H209" t="s">
-        <v>1780</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11204,13 +11219,13 @@
         <v>1278</v>
       </c>
       <c r="F210" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G210" t="s">
-        <v>1581</v>
+        <v>1586</v>
       </c>
       <c r="H210" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11230,13 +11245,13 @@
         <v>1275</v>
       </c>
       <c r="F211" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="G211" t="s">
-        <v>1582</v>
+        <v>1587</v>
       </c>
       <c r="H211" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11256,13 +11271,13 @@
         <v>1275</v>
       </c>
       <c r="F212" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="G212" t="s">
-        <v>1583</v>
+        <v>1588</v>
       </c>
       <c r="H212" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11282,13 +11297,13 @@
         <v>1277</v>
       </c>
       <c r="F213" t="s">
-        <v>1336</v>
+        <v>1389</v>
       </c>
       <c r="G213" t="s">
-        <v>1584</v>
+        <v>1589</v>
       </c>
       <c r="H213" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11311,10 +11326,10 @@
         <v>1339</v>
       </c>
       <c r="G214" t="s">
-        <v>1585</v>
+        <v>1590</v>
       </c>
       <c r="H214" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11337,10 +11352,10 @@
         <v>1277</v>
       </c>
       <c r="G215" t="s">
-        <v>1555</v>
+        <v>1560</v>
       </c>
       <c r="H215" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11360,13 +11375,13 @@
         <v>1310</v>
       </c>
       <c r="F216" t="s">
-        <v>1386</v>
+        <v>1390</v>
       </c>
       <c r="G216" t="s">
-        <v>1586</v>
+        <v>1591</v>
       </c>
       <c r="H216" t="s">
-        <v>1784</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11386,13 +11401,13 @@
         <v>1277</v>
       </c>
       <c r="F217" t="s">
-        <v>1340</v>
+        <v>1362</v>
       </c>
       <c r="G217" t="s">
-        <v>1587</v>
+        <v>1592</v>
       </c>
       <c r="H217" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11418,7 +11433,7 @@
         <v>1110</v>
       </c>
       <c r="H218" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11438,13 +11453,13 @@
         <v>1295</v>
       </c>
       <c r="F219" t="s">
-        <v>1387</v>
+        <v>1391</v>
       </c>
       <c r="G219" t="s">
-        <v>1588</v>
+        <v>1593</v>
       </c>
       <c r="H219" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11467,10 +11482,10 @@
         <v>1339</v>
       </c>
       <c r="G220" t="s">
-        <v>1589</v>
+        <v>1594</v>
       </c>
       <c r="H220" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11490,13 +11505,13 @@
         <v>1310</v>
       </c>
       <c r="F221" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="G221" t="s">
-        <v>1590</v>
+        <v>1595</v>
       </c>
       <c r="H221" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11516,13 +11531,13 @@
         <v>1284</v>
       </c>
       <c r="F222" t="s">
-        <v>1352</v>
+        <v>1342</v>
       </c>
       <c r="G222" t="s">
-        <v>1591</v>
+        <v>1596</v>
       </c>
       <c r="H222" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11542,13 +11557,13 @@
         <v>1309</v>
       </c>
       <c r="F223" t="s">
-        <v>1388</v>
+        <v>1392</v>
       </c>
       <c r="G223" t="s">
-        <v>1592</v>
+        <v>1597</v>
       </c>
       <c r="H223" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11568,13 +11583,13 @@
         <v>1312</v>
       </c>
       <c r="F224" t="s">
-        <v>1389</v>
+        <v>1393</v>
       </c>
       <c r="G224" t="s">
-        <v>1593</v>
+        <v>1598</v>
       </c>
       <c r="H224" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11594,13 +11609,13 @@
         <v>1275</v>
       </c>
       <c r="F225" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="G225" t="s">
-        <v>1594</v>
+        <v>1599</v>
       </c>
       <c r="H225" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11620,13 +11635,13 @@
         <v>1310</v>
       </c>
       <c r="F226" t="s">
-        <v>1390</v>
+        <v>1361</v>
       </c>
       <c r="G226" t="s">
-        <v>1595</v>
+        <v>1600</v>
       </c>
       <c r="H226" t="s">
-        <v>1785</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11646,13 +11661,13 @@
         <v>1313</v>
       </c>
       <c r="F227" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="G227" t="s">
-        <v>1596</v>
+        <v>1601</v>
       </c>
       <c r="H227" t="s">
-        <v>1786</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11672,13 +11687,13 @@
         <v>1284</v>
       </c>
       <c r="F228" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="G228" t="s">
-        <v>1597</v>
+        <v>1602</v>
       </c>
       <c r="H228" t="s">
-        <v>1765</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11704,7 +11719,7 @@
         <v>1093</v>
       </c>
       <c r="H229" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11730,7 +11745,7 @@
         <v>935</v>
       </c>
       <c r="H230" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11756,7 +11771,7 @@
         <v>1093</v>
       </c>
       <c r="H231" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11779,10 +11794,10 @@
         <v>1284</v>
       </c>
       <c r="G232" t="s">
-        <v>1598</v>
+        <v>1603</v>
       </c>
       <c r="H232" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11808,7 +11823,7 @@
         <v>952</v>
       </c>
       <c r="H233" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11831,10 +11846,10 @@
         <v>1277</v>
       </c>
       <c r="G234" t="s">
-        <v>1512</v>
+        <v>1517</v>
       </c>
       <c r="H234" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11860,7 +11875,7 @@
         <v>952</v>
       </c>
       <c r="H235" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11883,10 +11898,10 @@
         <v>1293</v>
       </c>
       <c r="G236" t="s">
-        <v>1599</v>
+        <v>1604</v>
       </c>
       <c r="H236" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11906,13 +11921,13 @@
         <v>1314</v>
       </c>
       <c r="F237" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="G237" t="s">
-        <v>1600</v>
+        <v>1605</v>
       </c>
       <c r="H237" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11932,13 +11947,13 @@
         <v>1284</v>
       </c>
       <c r="F238" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G238" t="s">
-        <v>1601</v>
+        <v>1606</v>
       </c>
       <c r="H238" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11958,13 +11973,13 @@
         <v>1299</v>
       </c>
       <c r="F239" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="G239" t="s">
-        <v>1602</v>
+        <v>1607</v>
       </c>
       <c r="H239" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -11984,13 +11999,13 @@
         <v>1284</v>
       </c>
       <c r="F240" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="G240" t="s">
-        <v>1603</v>
+        <v>1608</v>
       </c>
       <c r="H240" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -12010,13 +12025,13 @@
         <v>1284</v>
       </c>
       <c r="F241" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="G241" t="s">
-        <v>1604</v>
+        <v>1609</v>
       </c>
       <c r="H241" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12036,13 +12051,13 @@
         <v>1315</v>
       </c>
       <c r="F242" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="G242" t="s">
-        <v>1605</v>
+        <v>1610</v>
       </c>
       <c r="H242" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12068,7 +12083,7 @@
         <v>952</v>
       </c>
       <c r="H243" t="s">
-        <v>1765</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12091,10 +12106,10 @@
         <v>1277</v>
       </c>
       <c r="G244" t="s">
-        <v>1606</v>
+        <v>1611</v>
       </c>
       <c r="H244" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12114,13 +12129,13 @@
         <v>1316</v>
       </c>
       <c r="F245" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="G245" t="s">
-        <v>1607</v>
+        <v>1612</v>
       </c>
       <c r="H245" t="s">
-        <v>1774</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12140,13 +12155,13 @@
         <v>1284</v>
       </c>
       <c r="F246" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G246" t="s">
-        <v>1608</v>
+        <v>1613</v>
       </c>
       <c r="H246" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12166,13 +12181,13 @@
         <v>1317</v>
       </c>
       <c r="F247" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="G247" t="s">
-        <v>1609</v>
+        <v>1614</v>
       </c>
       <c r="H247" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12198,7 +12213,7 @@
         <v>952</v>
       </c>
       <c r="H248" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12224,7 +12239,7 @@
         <v>935</v>
       </c>
       <c r="H249" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12250,7 +12265,7 @@
         <v>952</v>
       </c>
       <c r="H250" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12276,7 +12291,7 @@
         <v>935</v>
       </c>
       <c r="H251" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12296,13 +12311,13 @@
         <v>1309</v>
       </c>
       <c r="F252" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="G252" t="s">
-        <v>1610</v>
+        <v>1615</v>
       </c>
       <c r="H252" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12322,13 +12337,13 @@
         <v>1275</v>
       </c>
       <c r="F253" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="G253" t="s">
-        <v>1611</v>
+        <v>1616</v>
       </c>
       <c r="H253" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12348,13 +12363,13 @@
         <v>1304</v>
       </c>
       <c r="F254" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G254" t="s">
-        <v>1612</v>
+        <v>1617</v>
       </c>
       <c r="H254" t="s">
-        <v>1768</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12380,7 +12395,7 @@
         <v>963</v>
       </c>
       <c r="H255" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12400,13 +12415,13 @@
         <v>1299</v>
       </c>
       <c r="F256" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="G256" t="s">
-        <v>1613</v>
+        <v>1618</v>
       </c>
       <c r="H256" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12432,7 +12447,7 @@
         <v>1136</v>
       </c>
       <c r="H257" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12452,13 +12467,13 @@
         <v>1275</v>
       </c>
       <c r="F258" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="G258" t="s">
-        <v>1614</v>
+        <v>1619</v>
       </c>
       <c r="H258" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12484,7 +12499,7 @@
         <v>952</v>
       </c>
       <c r="H259" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12504,13 +12519,13 @@
         <v>1275</v>
       </c>
       <c r="F260" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="G260" t="s">
-        <v>1615</v>
+        <v>1620</v>
       </c>
       <c r="H260" t="s">
-        <v>1777</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12533,10 +12548,10 @@
         <v>1293</v>
       </c>
       <c r="G261" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
       <c r="H261" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12559,10 +12574,10 @@
         <v>1336</v>
       </c>
       <c r="G262" t="s">
-        <v>1436</v>
+        <v>1441</v>
       </c>
       <c r="H262" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12582,13 +12597,13 @@
         <v>1278</v>
       </c>
       <c r="F263" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="G263" t="s">
-        <v>1617</v>
+        <v>1622</v>
       </c>
       <c r="H263" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12608,13 +12623,13 @@
         <v>1284</v>
       </c>
       <c r="F264" t="s">
-        <v>1383</v>
+        <v>1366</v>
       </c>
       <c r="G264" t="s">
-        <v>1618</v>
+        <v>1623</v>
       </c>
       <c r="H264" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12637,10 +12652,10 @@
         <v>1293</v>
       </c>
       <c r="G265" t="s">
-        <v>1616</v>
+        <v>1621</v>
       </c>
       <c r="H265" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12666,7 +12681,7 @@
         <v>1142</v>
       </c>
       <c r="H266" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12686,13 +12701,13 @@
         <v>1284</v>
       </c>
       <c r="F267" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G267" t="s">
         <v>972</v>
       </c>
       <c r="H267" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12712,13 +12727,13 @@
         <v>1299</v>
       </c>
       <c r="F268" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="G268" t="s">
-        <v>1619</v>
+        <v>1624</v>
       </c>
       <c r="H268" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12744,7 +12759,7 @@
         <v>1164</v>
       </c>
       <c r="H269" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12764,13 +12779,13 @@
         <v>1310</v>
       </c>
       <c r="F270" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="G270" t="s">
-        <v>1620</v>
+        <v>1625</v>
       </c>
       <c r="H270" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12790,13 +12805,13 @@
         <v>1293</v>
       </c>
       <c r="F271" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="G271" t="s">
-        <v>1621</v>
+        <v>1626</v>
       </c>
       <c r="H271" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12816,13 +12831,13 @@
         <v>1278</v>
       </c>
       <c r="F272" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G272" t="s">
-        <v>1622</v>
+        <v>1627</v>
       </c>
       <c r="H272" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12842,13 +12857,13 @@
         <v>1285</v>
       </c>
       <c r="F273" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="G273" t="s">
-        <v>1623</v>
+        <v>1628</v>
       </c>
       <c r="H273" t="s">
-        <v>1773</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12868,13 +12883,13 @@
         <v>1275</v>
       </c>
       <c r="F274" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="G274" t="s">
-        <v>1624</v>
+        <v>1629</v>
       </c>
       <c r="H274" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12894,13 +12909,13 @@
         <v>1275</v>
       </c>
       <c r="F275" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G275" t="s">
-        <v>1625</v>
+        <v>1630</v>
       </c>
       <c r="H275" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12920,13 +12935,13 @@
         <v>1303</v>
       </c>
       <c r="F276" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="G276" t="s">
-        <v>1626</v>
+        <v>1631</v>
       </c>
       <c r="H276" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12946,13 +12961,13 @@
         <v>1285</v>
       </c>
       <c r="F277" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G277" t="s">
-        <v>1627</v>
+        <v>1632</v>
       </c>
       <c r="H277" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12972,13 +12987,13 @@
         <v>1278</v>
       </c>
       <c r="F278" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="G278" t="s">
-        <v>1628</v>
+        <v>1633</v>
       </c>
       <c r="H278" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -12998,13 +13013,13 @@
         <v>1284</v>
       </c>
       <c r="F279" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G279" t="s">
-        <v>1629</v>
+        <v>1634</v>
       </c>
       <c r="H279" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -13024,13 +13039,13 @@
         <v>1318</v>
       </c>
       <c r="F280" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="G280" t="s">
-        <v>1630</v>
+        <v>1635</v>
       </c>
       <c r="H280" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13053,10 +13068,10 @@
         <v>1284</v>
       </c>
       <c r="G281" t="s">
-        <v>1631</v>
+        <v>1636</v>
       </c>
       <c r="H281" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13076,13 +13091,13 @@
         <v>1275</v>
       </c>
       <c r="F282" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G282" t="s">
-        <v>1632</v>
+        <v>1637</v>
       </c>
       <c r="H282" t="s">
-        <v>1777</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13105,10 +13120,10 @@
         <v>1373</v>
       </c>
       <c r="G283" t="s">
-        <v>1633</v>
+        <v>1638</v>
       </c>
       <c r="H283" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13134,7 +13149,7 @@
         <v>1026</v>
       </c>
       <c r="H284" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13157,10 +13172,10 @@
         <v>1339</v>
       </c>
       <c r="G285" t="s">
-        <v>1634</v>
+        <v>1639</v>
       </c>
       <c r="H285" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13180,13 +13195,13 @@
         <v>1275</v>
       </c>
       <c r="F286" t="s">
-        <v>1362</v>
+        <v>1348</v>
       </c>
       <c r="G286" t="s">
-        <v>1635</v>
+        <v>1640</v>
       </c>
       <c r="H286" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13206,13 +13221,13 @@
         <v>1275</v>
       </c>
       <c r="F287" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="G287" t="s">
-        <v>1636</v>
+        <v>1641</v>
       </c>
       <c r="H287" t="s">
-        <v>1777</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13238,7 +13253,7 @@
         <v>1119</v>
       </c>
       <c r="H288" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13264,7 +13279,7 @@
         <v>952</v>
       </c>
       <c r="H289" t="s">
-        <v>1765</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13284,13 +13299,13 @@
         <v>1319</v>
       </c>
       <c r="F290" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="G290" t="s">
-        <v>1637</v>
+        <v>1642</v>
       </c>
       <c r="H290" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13310,13 +13325,13 @@
         <v>1275</v>
       </c>
       <c r="F291" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="G291" t="s">
-        <v>1638</v>
+        <v>1643</v>
       </c>
       <c r="H291" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13336,13 +13351,13 @@
         <v>1275</v>
       </c>
       <c r="F292" t="s">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="G292" t="s">
-        <v>1639</v>
+        <v>1644</v>
       </c>
       <c r="H292" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13368,7 +13383,7 @@
         <v>937</v>
       </c>
       <c r="H293" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13388,13 +13403,13 @@
         <v>1275</v>
       </c>
       <c r="F294" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="G294" t="s">
-        <v>1640</v>
+        <v>1645</v>
       </c>
       <c r="H294" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13414,13 +13429,13 @@
         <v>1284</v>
       </c>
       <c r="F295" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="G295" t="s">
-        <v>1641</v>
+        <v>1646</v>
       </c>
       <c r="H295" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13440,13 +13455,13 @@
         <v>1320</v>
       </c>
       <c r="F296" t="s">
-        <v>1360</v>
+        <v>1340</v>
       </c>
       <c r="G296" t="s">
-        <v>1642</v>
+        <v>1647</v>
       </c>
       <c r="H296" t="s">
-        <v>1773</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13466,13 +13481,13 @@
         <v>1275</v>
       </c>
       <c r="F297" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="G297" t="s">
-        <v>1643</v>
+        <v>1648</v>
       </c>
       <c r="H297" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13492,13 +13507,13 @@
         <v>1275</v>
       </c>
       <c r="F298" t="s">
-        <v>1387</v>
+        <v>1391</v>
       </c>
       <c r="G298" t="s">
-        <v>1644</v>
+        <v>1649</v>
       </c>
       <c r="H298" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13524,7 +13539,7 @@
         <v>1201</v>
       </c>
       <c r="H299" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13550,7 +13565,7 @@
         <v>1093</v>
       </c>
       <c r="H300" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13576,7 +13591,7 @@
         <v>952</v>
       </c>
       <c r="H301" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13602,7 +13617,7 @@
         <v>952</v>
       </c>
       <c r="H302" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13622,13 +13637,13 @@
         <v>1284</v>
       </c>
       <c r="F303" t="s">
-        <v>1352</v>
+        <v>1404</v>
       </c>
       <c r="G303" t="s">
-        <v>1645</v>
+        <v>1650</v>
       </c>
       <c r="H303" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13648,13 +13663,13 @@
         <v>1293</v>
       </c>
       <c r="F304" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="G304" t="s">
-        <v>1646</v>
+        <v>1651</v>
       </c>
       <c r="H304" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13680,7 +13695,7 @@
         <v>952</v>
       </c>
       <c r="H305" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13706,7 +13721,7 @@
         <v>955</v>
       </c>
       <c r="H306" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13729,10 +13744,10 @@
         <v>1275</v>
       </c>
       <c r="G307" t="s">
-        <v>1647</v>
+        <v>1652</v>
       </c>
       <c r="H307" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13752,13 +13767,13 @@
         <v>1278</v>
       </c>
       <c r="F308" t="s">
-        <v>1409</v>
+        <v>1389</v>
       </c>
       <c r="G308" t="s">
-        <v>1648</v>
+        <v>1653</v>
       </c>
       <c r="H308" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13778,13 +13793,13 @@
         <v>1275</v>
       </c>
       <c r="F309" t="s">
-        <v>1403</v>
+        <v>1412</v>
       </c>
       <c r="G309" t="s">
-        <v>1649</v>
+        <v>1654</v>
       </c>
       <c r="H309" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13810,7 +13825,7 @@
         <v>1004</v>
       </c>
       <c r="H310" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13836,7 +13851,7 @@
         <v>937</v>
       </c>
       <c r="H311" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13856,13 +13871,13 @@
         <v>1275</v>
       </c>
       <c r="F312" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="G312" t="s">
-        <v>1650</v>
+        <v>1655</v>
       </c>
       <c r="H312" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13888,7 +13903,7 @@
         <v>952</v>
       </c>
       <c r="H313" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13911,10 +13926,10 @@
         <v>1277</v>
       </c>
       <c r="G314" t="s">
-        <v>1651</v>
+        <v>1656</v>
       </c>
       <c r="H314" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13934,13 +13949,13 @@
         <v>1299</v>
       </c>
       <c r="F315" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="G315" t="s">
-        <v>1652</v>
+        <v>1657</v>
       </c>
       <c r="H315" t="s">
-        <v>1766</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13966,7 +13981,7 @@
         <v>1093</v>
       </c>
       <c r="H316" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -13986,13 +14001,13 @@
         <v>1284</v>
       </c>
       <c r="F317" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G317" t="s">
-        <v>1653</v>
+        <v>1658</v>
       </c>
       <c r="H317" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -14018,7 +14033,7 @@
         <v>1093</v>
       </c>
       <c r="H318" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14038,13 +14053,13 @@
         <v>1275</v>
       </c>
       <c r="F319" t="s">
-        <v>1362</v>
+        <v>1346</v>
       </c>
       <c r="G319" t="s">
-        <v>1654</v>
+        <v>1659</v>
       </c>
       <c r="H319" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14070,7 +14085,7 @@
         <v>952</v>
       </c>
       <c r="H320" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14090,13 +14105,13 @@
         <v>1293</v>
       </c>
       <c r="F321" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="G321" t="s">
-        <v>1655</v>
+        <v>1660</v>
       </c>
       <c r="H321" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14116,13 +14131,13 @@
         <v>1275</v>
       </c>
       <c r="F322" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="G322" t="s">
-        <v>1656</v>
+        <v>1661</v>
       </c>
       <c r="H322" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14148,7 +14163,7 @@
         <v>952</v>
       </c>
       <c r="H323" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14174,7 +14189,7 @@
         <v>937</v>
       </c>
       <c r="H324" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14200,7 +14215,7 @@
         <v>1175</v>
       </c>
       <c r="H325" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14226,7 +14241,7 @@
         <v>1093</v>
       </c>
       <c r="H326" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14246,13 +14261,13 @@
         <v>1314</v>
       </c>
       <c r="F327" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G327" t="s">
-        <v>1657</v>
+        <v>1662</v>
       </c>
       <c r="H327" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14275,10 +14290,10 @@
         <v>1277</v>
       </c>
       <c r="G328" t="s">
-        <v>1658</v>
+        <v>1663</v>
       </c>
       <c r="H328" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14301,10 +14316,10 @@
         <v>1373</v>
       </c>
       <c r="G329" t="s">
-        <v>1659</v>
+        <v>1664</v>
       </c>
       <c r="H329" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14324,13 +14339,13 @@
         <v>1278</v>
       </c>
       <c r="F330" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G330" t="s">
-        <v>1660</v>
+        <v>1665</v>
       </c>
       <c r="H330" t="s">
-        <v>1772</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14356,7 +14371,7 @@
         <v>952</v>
       </c>
       <c r="H331" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14382,7 +14397,7 @@
         <v>1093</v>
       </c>
       <c r="H332" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14402,13 +14417,13 @@
         <v>1275</v>
       </c>
       <c r="F333" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="G333" t="s">
-        <v>1661</v>
+        <v>1666</v>
       </c>
       <c r="H333" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14428,13 +14443,13 @@
         <v>1284</v>
       </c>
       <c r="F334" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G334" t="s">
-        <v>1662</v>
+        <v>1667</v>
       </c>
       <c r="H334" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14454,13 +14469,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="G335" t="s">
-        <v>1663</v>
+        <v>1668</v>
       </c>
       <c r="H335" t="s">
-        <v>1787</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14483,10 +14498,10 @@
         <v>1339</v>
       </c>
       <c r="G336" t="s">
-        <v>1664</v>
+        <v>1669</v>
       </c>
       <c r="H336" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14506,13 +14521,13 @@
         <v>1296</v>
       </c>
       <c r="F337" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="G337" t="s">
-        <v>1665</v>
+        <v>1670</v>
       </c>
       <c r="H337" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14532,13 +14547,13 @@
         <v>1284</v>
       </c>
       <c r="F338" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G338" t="s">
-        <v>1666</v>
+        <v>1671</v>
       </c>
       <c r="H338" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14564,7 +14579,7 @@
         <v>935</v>
       </c>
       <c r="H339" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14590,7 +14605,7 @@
         <v>1184</v>
       </c>
       <c r="H340" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14613,10 +14628,10 @@
         <v>1277</v>
       </c>
       <c r="G341" t="s">
-        <v>1667</v>
+        <v>1672</v>
       </c>
       <c r="H341" t="s">
-        <v>1777</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14636,13 +14651,13 @@
         <v>1310</v>
       </c>
       <c r="F342" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="G342" t="s">
-        <v>1668</v>
+        <v>1673</v>
       </c>
       <c r="H342" t="s">
-        <v>1766</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14662,13 +14677,13 @@
         <v>1310</v>
       </c>
       <c r="F343" t="s">
-        <v>1360</v>
+        <v>1340</v>
       </c>
       <c r="G343" t="s">
-        <v>1669</v>
+        <v>1674</v>
       </c>
       <c r="H343" t="s">
-        <v>1772</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14688,13 +14703,13 @@
         <v>1296</v>
       </c>
       <c r="F344" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="G344" t="s">
-        <v>1670</v>
+        <v>1675</v>
       </c>
       <c r="H344" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14720,7 +14735,7 @@
         <v>1093</v>
       </c>
       <c r="H345" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14743,10 +14758,10 @@
         <v>1293</v>
       </c>
       <c r="G346" t="s">
-        <v>1671</v>
+        <v>1676</v>
       </c>
       <c r="H346" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14766,13 +14781,13 @@
         <v>1316</v>
       </c>
       <c r="F347" t="s">
-        <v>1409</v>
+        <v>1389</v>
       </c>
       <c r="G347" t="s">
-        <v>1672</v>
+        <v>1677</v>
       </c>
       <c r="H347" t="s">
-        <v>1788</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14798,7 +14813,7 @@
         <v>952</v>
       </c>
       <c r="H348" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14818,13 +14833,13 @@
         <v>1299</v>
       </c>
       <c r="F349" t="s">
-        <v>1389</v>
+        <v>1393</v>
       </c>
       <c r="G349" t="s">
-        <v>1673</v>
+        <v>1678</v>
       </c>
       <c r="H349" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14844,13 +14859,13 @@
         <v>1323</v>
       </c>
       <c r="F350" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="G350" t="s">
-        <v>1674</v>
+        <v>1679</v>
       </c>
       <c r="H350" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14873,10 +14888,10 @@
         <v>1367</v>
       </c>
       <c r="G351" t="s">
-        <v>1675</v>
+        <v>1680</v>
       </c>
       <c r="H351" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14902,7 +14917,7 @@
         <v>1093</v>
       </c>
       <c r="H352" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14922,13 +14937,13 @@
         <v>1275</v>
       </c>
       <c r="F353" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="G353" t="s">
-        <v>1676</v>
+        <v>1681</v>
       </c>
       <c r="H353" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14954,7 +14969,7 @@
         <v>955</v>
       </c>
       <c r="H354" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14980,7 +14995,7 @@
         <v>1093</v>
       </c>
       <c r="H355" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -15000,13 +15015,13 @@
         <v>1275</v>
       </c>
       <c r="F356" t="s">
-        <v>1395</v>
+        <v>1421</v>
       </c>
       <c r="G356" t="s">
-        <v>1677</v>
+        <v>1682</v>
       </c>
       <c r="H356" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -15029,10 +15044,10 @@
         <v>1336</v>
       </c>
       <c r="G357" t="s">
-        <v>1628</v>
+        <v>1633</v>
       </c>
       <c r="H357" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15052,13 +15067,13 @@
         <v>1321</v>
       </c>
       <c r="F358" t="s">
-        <v>1418</v>
+        <v>1422</v>
       </c>
       <c r="G358" t="s">
-        <v>1678</v>
+        <v>1683</v>
       </c>
       <c r="H358" t="s">
-        <v>1776</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15078,13 +15093,13 @@
         <v>1284</v>
       </c>
       <c r="F359" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="G359" t="s">
-        <v>1679</v>
+        <v>1684</v>
       </c>
       <c r="H359" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15104,13 +15119,13 @@
         <v>1284</v>
       </c>
       <c r="F360" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="G360" t="s">
-        <v>1680</v>
+        <v>1685</v>
       </c>
       <c r="H360" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15130,13 +15145,13 @@
         <v>1324</v>
       </c>
       <c r="F361" t="s">
-        <v>1419</v>
+        <v>1423</v>
       </c>
       <c r="G361" t="s">
-        <v>1681</v>
+        <v>1686</v>
       </c>
       <c r="H361" t="s">
-        <v>1789</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15156,13 +15171,13 @@
         <v>1297</v>
       </c>
       <c r="F362" t="s">
-        <v>1420</v>
+        <v>1404</v>
       </c>
       <c r="G362" t="s">
-        <v>1682</v>
+        <v>1687</v>
       </c>
       <c r="H362" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15188,7 +15203,7 @@
         <v>1201</v>
       </c>
       <c r="H363" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15208,13 +15223,13 @@
         <v>1278</v>
       </c>
       <c r="F364" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="G364" t="s">
-        <v>1683</v>
+        <v>1688</v>
       </c>
       <c r="H364" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15240,7 +15255,7 @@
         <v>1241</v>
       </c>
       <c r="H365" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15260,13 +15275,13 @@
         <v>1285</v>
       </c>
       <c r="F366" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G366" t="s">
-        <v>1684</v>
+        <v>1689</v>
       </c>
       <c r="H366" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15289,10 +15304,10 @@
         <v>1336</v>
       </c>
       <c r="G367" t="s">
-        <v>1685</v>
+        <v>1690</v>
       </c>
       <c r="H367" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15315,10 +15330,10 @@
         <v>1336</v>
       </c>
       <c r="G368" t="s">
-        <v>1686</v>
+        <v>1691</v>
       </c>
       <c r="H368" t="s">
-        <v>1790</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15344,7 +15359,7 @@
         <v>1093</v>
       </c>
       <c r="H369" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15367,10 +15382,10 @@
         <v>1367</v>
       </c>
       <c r="G370" t="s">
-        <v>1687</v>
+        <v>1692</v>
       </c>
       <c r="H370" t="s">
-        <v>1765</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15396,7 +15411,7 @@
         <v>937</v>
       </c>
       <c r="H371" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15416,13 +15431,13 @@
         <v>1297</v>
       </c>
       <c r="F372" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G372" t="s">
-        <v>1688</v>
+        <v>1693</v>
       </c>
       <c r="H372" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15445,10 +15460,10 @@
         <v>1336</v>
       </c>
       <c r="G373" t="s">
-        <v>1689</v>
+        <v>1694</v>
       </c>
       <c r="H373" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15468,13 +15483,13 @@
         <v>1284</v>
       </c>
       <c r="F374" t="s">
-        <v>1374</v>
+        <v>1424</v>
       </c>
       <c r="G374" t="s">
-        <v>1690</v>
+        <v>1695</v>
       </c>
       <c r="H374" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15497,10 +15512,10 @@
         <v>1336</v>
       </c>
       <c r="G375" t="s">
-        <v>1691</v>
+        <v>1696</v>
       </c>
       <c r="H375" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15520,13 +15535,13 @@
         <v>1284</v>
       </c>
       <c r="F376" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G376" t="s">
-        <v>1692</v>
+        <v>1697</v>
       </c>
       <c r="H376" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15546,13 +15561,13 @@
         <v>1284</v>
       </c>
       <c r="F377" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G377" t="s">
-        <v>1693</v>
+        <v>1698</v>
       </c>
       <c r="H377" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15575,10 +15590,10 @@
         <v>1284</v>
       </c>
       <c r="G378" t="s">
-        <v>1694</v>
+        <v>1699</v>
       </c>
       <c r="H378" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15604,7 +15619,7 @@
         <v>1119</v>
       </c>
       <c r="H379" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15624,13 +15639,13 @@
         <v>1278</v>
       </c>
       <c r="F380" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G380" t="s">
-        <v>1695</v>
+        <v>1700</v>
       </c>
       <c r="H380" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15650,13 +15665,13 @@
         <v>1278</v>
       </c>
       <c r="F381" t="s">
-        <v>1421</v>
+        <v>1425</v>
       </c>
       <c r="G381" t="s">
-        <v>1696</v>
+        <v>1701</v>
       </c>
       <c r="H381" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15676,13 +15691,13 @@
         <v>1284</v>
       </c>
       <c r="F382" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G382" t="s">
-        <v>1697</v>
+        <v>1702</v>
       </c>
       <c r="H382" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15702,13 +15717,13 @@
         <v>1325</v>
       </c>
       <c r="F383" t="s">
-        <v>1422</v>
+        <v>1426</v>
       </c>
       <c r="G383" t="s">
-        <v>1698</v>
+        <v>1703</v>
       </c>
       <c r="H383" t="s">
-        <v>1774</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15734,7 +15749,7 @@
         <v>1069</v>
       </c>
       <c r="H384" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15754,13 +15769,13 @@
         <v>1321</v>
       </c>
       <c r="F385" t="s">
-        <v>1423</v>
+        <v>1427</v>
       </c>
       <c r="G385" t="s">
-        <v>1699</v>
+        <v>1704</v>
       </c>
       <c r="H385" t="s">
-        <v>1766</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15780,13 +15795,13 @@
         <v>1326</v>
       </c>
       <c r="F386" t="s">
-        <v>1424</v>
+        <v>1428</v>
       </c>
       <c r="G386" t="s">
-        <v>1700</v>
+        <v>1705</v>
       </c>
       <c r="H386" t="s">
-        <v>1791</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15806,13 +15821,13 @@
         <v>1327</v>
       </c>
       <c r="F387" t="s">
-        <v>1425</v>
+        <v>1429</v>
       </c>
       <c r="G387" t="s">
-        <v>1701</v>
+        <v>1706</v>
       </c>
       <c r="H387" t="s">
-        <v>1782</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15832,13 +15847,13 @@
         <v>1328</v>
       </c>
       <c r="F388" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="G388" t="s">
-        <v>1702</v>
+        <v>1707</v>
       </c>
       <c r="H388" t="s">
-        <v>1766</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15858,13 +15873,13 @@
         <v>1278</v>
       </c>
       <c r="F389" t="s">
-        <v>1409</v>
+        <v>1389</v>
       </c>
       <c r="G389" t="s">
-        <v>1703</v>
+        <v>1708</v>
       </c>
       <c r="H389" t="s">
-        <v>1781</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15884,13 +15899,13 @@
         <v>1324</v>
       </c>
       <c r="F390" t="s">
-        <v>1426</v>
+        <v>1430</v>
       </c>
       <c r="G390" t="s">
-        <v>1704</v>
+        <v>1709</v>
       </c>
       <c r="H390" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15910,13 +15925,13 @@
         <v>1293</v>
       </c>
       <c r="F391" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G391" t="s">
-        <v>1705</v>
+        <v>1710</v>
       </c>
       <c r="H391" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15936,13 +15951,13 @@
         <v>1282</v>
       </c>
       <c r="F392" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="G392" t="s">
-        <v>1706</v>
+        <v>1711</v>
       </c>
       <c r="H392" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15968,7 +15983,7 @@
         <v>1069</v>
       </c>
       <c r="H393" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -15988,13 +16003,13 @@
         <v>1294</v>
       </c>
       <c r="F394" t="s">
-        <v>1337</v>
+        <v>1382</v>
       </c>
       <c r="G394" t="s">
-        <v>1707</v>
+        <v>1712</v>
       </c>
       <c r="H394" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -16014,13 +16029,13 @@
         <v>1284</v>
       </c>
       <c r="F395" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="G395" t="s">
-        <v>1708</v>
+        <v>1713</v>
       </c>
       <c r="H395" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16040,13 +16055,13 @@
         <v>1284</v>
       </c>
       <c r="F396" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="G396" t="s">
-        <v>1709</v>
+        <v>1714</v>
       </c>
       <c r="H396" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16066,13 +16081,13 @@
         <v>1278</v>
       </c>
       <c r="F397" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G397" t="s">
-        <v>1710</v>
+        <v>1715</v>
       </c>
       <c r="H397" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16098,7 +16113,7 @@
         <v>1093</v>
       </c>
       <c r="H398" t="s">
-        <v>1776</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16124,7 +16139,7 @@
         <v>1093</v>
       </c>
       <c r="H399" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16144,13 +16159,13 @@
         <v>1284</v>
       </c>
       <c r="F400" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G400" t="s">
-        <v>1711</v>
+        <v>1716</v>
       </c>
       <c r="H400" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16170,13 +16185,13 @@
         <v>1278</v>
       </c>
       <c r="F401" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G401" t="s">
-        <v>1695</v>
+        <v>1700</v>
       </c>
       <c r="H401" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16196,13 +16211,13 @@
         <v>1293</v>
       </c>
       <c r="F402" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="G402" t="s">
-        <v>1712</v>
+        <v>1717</v>
       </c>
       <c r="H402" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16228,7 +16243,7 @@
         <v>972</v>
       </c>
       <c r="H403" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16248,13 +16263,13 @@
         <v>1303</v>
       </c>
       <c r="F404" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="G404" t="s">
-        <v>1500</v>
+        <v>1505</v>
       </c>
       <c r="H404" t="s">
-        <v>1792</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16280,7 +16295,7 @@
         <v>1228</v>
       </c>
       <c r="H405" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16300,13 +16315,13 @@
         <v>1293</v>
       </c>
       <c r="F406" t="s">
-        <v>1337</v>
+        <v>1431</v>
       </c>
       <c r="G406" t="s">
-        <v>1713</v>
+        <v>1718</v>
       </c>
       <c r="H406" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16326,13 +16341,13 @@
         <v>1284</v>
       </c>
       <c r="F407" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G407" t="s">
-        <v>1714</v>
+        <v>1719</v>
       </c>
       <c r="H407" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16352,13 +16367,13 @@
         <v>1278</v>
       </c>
       <c r="F408" t="s">
-        <v>1337</v>
+        <v>1382</v>
       </c>
       <c r="G408" t="s">
-        <v>1715</v>
+        <v>1720</v>
       </c>
       <c r="H408" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16378,13 +16393,13 @@
         <v>1324</v>
       </c>
       <c r="F409" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G409" t="s">
-        <v>1493</v>
+        <v>1498</v>
       </c>
       <c r="H409" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16410,7 +16425,7 @@
         <v>1093</v>
       </c>
       <c r="H410" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16430,13 +16445,13 @@
         <v>1293</v>
       </c>
       <c r="F411" t="s">
-        <v>1428</v>
+        <v>1432</v>
       </c>
       <c r="G411" t="s">
-        <v>1716</v>
+        <v>1721</v>
       </c>
       <c r="H411" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16456,13 +16471,13 @@
         <v>1284</v>
       </c>
       <c r="F412" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G412" t="s">
-        <v>1717</v>
+        <v>1722</v>
       </c>
       <c r="H412" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16482,13 +16497,13 @@
         <v>1284</v>
       </c>
       <c r="F413" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G413" t="s">
         <v>972</v>
       </c>
       <c r="H413" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16514,7 +16529,7 @@
         <v>1235</v>
       </c>
       <c r="H414" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16534,13 +16549,13 @@
         <v>1323</v>
       </c>
       <c r="F415" t="s">
-        <v>1429</v>
+        <v>1433</v>
       </c>
       <c r="G415" t="s">
-        <v>1718</v>
+        <v>1723</v>
       </c>
       <c r="H415" t="s">
-        <v>1779</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16563,10 +16578,10 @@
         <v>1366</v>
       </c>
       <c r="G416" t="s">
-        <v>1719</v>
+        <v>1724</v>
       </c>
       <c r="H416" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16589,10 +16604,10 @@
         <v>1367</v>
       </c>
       <c r="G417" t="s">
-        <v>1720</v>
+        <v>1725</v>
       </c>
       <c r="H417" t="s">
-        <v>1778</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16612,13 +16627,13 @@
         <v>1284</v>
       </c>
       <c r="F418" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="G418" t="s">
-        <v>1721</v>
+        <v>1726</v>
       </c>
       <c r="H418" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16638,13 +16653,13 @@
         <v>1329</v>
       </c>
       <c r="F419" t="s">
-        <v>1399</v>
+        <v>1434</v>
       </c>
       <c r="G419" t="s">
-        <v>1722</v>
+        <v>1727</v>
       </c>
       <c r="H419" t="s">
-        <v>1793</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16664,13 +16679,13 @@
         <v>1284</v>
       </c>
       <c r="F420" t="s">
-        <v>1275</v>
+        <v>1284</v>
       </c>
       <c r="G420" t="s">
         <v>1241</v>
       </c>
       <c r="H420" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16690,13 +16705,13 @@
         <v>1284</v>
       </c>
       <c r="F421" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G421" t="s">
         <v>1242</v>
       </c>
       <c r="H421" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16719,10 +16734,10 @@
         <v>1336</v>
       </c>
       <c r="G422" t="s">
-        <v>1723</v>
+        <v>1728</v>
       </c>
       <c r="H422" t="s">
-        <v>1780</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16742,13 +16757,13 @@
         <v>1294</v>
       </c>
       <c r="F423" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="G423" t="s">
-        <v>1724</v>
+        <v>1729</v>
       </c>
       <c r="H423" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16768,13 +16783,13 @@
         <v>1284</v>
       </c>
       <c r="F424" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="G424" t="s">
-        <v>1725</v>
+        <v>1730</v>
       </c>
       <c r="H424" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16794,13 +16809,13 @@
         <v>1293</v>
       </c>
       <c r="F425" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="G425" t="s">
-        <v>1726</v>
+        <v>1731</v>
       </c>
       <c r="H425" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16826,7 +16841,7 @@
         <v>937</v>
       </c>
       <c r="H426" t="s">
-        <v>1767</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16852,7 +16867,7 @@
         <v>1069</v>
       </c>
       <c r="H427" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16878,7 +16893,7 @@
         <v>1246</v>
       </c>
       <c r="H428" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16898,13 +16913,13 @@
         <v>1297</v>
       </c>
       <c r="F429" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G429" t="s">
-        <v>1727</v>
+        <v>1732</v>
       </c>
       <c r="H429" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16924,13 +16939,13 @@
         <v>1329</v>
       </c>
       <c r="F430" t="s">
-        <v>1430</v>
+        <v>1435</v>
       </c>
       <c r="G430" t="s">
-        <v>1728</v>
+        <v>1733</v>
       </c>
       <c r="H430" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16950,13 +16965,13 @@
         <v>1284</v>
       </c>
       <c r="F431" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G431" t="s">
-        <v>1729</v>
+        <v>1734</v>
       </c>
       <c r="H431" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16979,10 +16994,10 @@
         <v>1277</v>
       </c>
       <c r="G432" t="s">
-        <v>1730</v>
+        <v>1735</v>
       </c>
       <c r="H432" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -17002,13 +17017,13 @@
         <v>1284</v>
       </c>
       <c r="F433" t="s">
-        <v>1370</v>
+        <v>1359</v>
       </c>
       <c r="G433" t="s">
-        <v>1731</v>
+        <v>1736</v>
       </c>
       <c r="H433" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -17031,10 +17046,10 @@
         <v>1431</v>
       </c>
       <c r="G434" t="s">
-        <v>1732</v>
+        <v>1737</v>
       </c>
       <c r="H434" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17054,13 +17069,13 @@
         <v>1296</v>
       </c>
       <c r="F435" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G435" t="s">
-        <v>1733</v>
+        <v>1738</v>
       </c>
       <c r="H435" t="s">
-        <v>1794</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17080,13 +17095,13 @@
         <v>1296</v>
       </c>
       <c r="F436" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G436" t="s">
-        <v>1734</v>
+        <v>1739</v>
       </c>
       <c r="H436" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17112,7 +17127,7 @@
         <v>972</v>
       </c>
       <c r="H437" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17132,13 +17147,13 @@
         <v>1293</v>
       </c>
       <c r="F438" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G438" t="s">
-        <v>1735</v>
+        <v>1740</v>
       </c>
       <c r="H438" t="s">
-        <v>1790</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17158,13 +17173,13 @@
         <v>1284</v>
       </c>
       <c r="F439" t="s">
-        <v>1432</v>
+        <v>1436</v>
       </c>
       <c r="G439" t="s">
-        <v>1736</v>
+        <v>1741</v>
       </c>
       <c r="H439" t="s">
-        <v>1781</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17184,13 +17199,13 @@
         <v>1329</v>
       </c>
       <c r="F440" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G440" t="s">
-        <v>1737</v>
+        <v>1742</v>
       </c>
       <c r="H440" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17213,10 +17228,10 @@
         <v>1275</v>
       </c>
       <c r="G441" t="s">
-        <v>1738</v>
+        <v>1743</v>
       </c>
       <c r="H441" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17242,7 +17257,7 @@
         <v>1093</v>
       </c>
       <c r="H442" t="s">
-        <v>1763</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17262,13 +17277,13 @@
         <v>1278</v>
       </c>
       <c r="F443" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G443" t="s">
-        <v>1739</v>
+        <v>1744</v>
       </c>
       <c r="H443" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17288,13 +17303,13 @@
         <v>1278</v>
       </c>
       <c r="F444" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G444" t="s">
-        <v>1740</v>
+        <v>1745</v>
       </c>
       <c r="H444" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17317,10 +17332,10 @@
         <v>1375</v>
       </c>
       <c r="G445" t="s">
-        <v>1741</v>
+        <v>1746</v>
       </c>
       <c r="H445" t="s">
-        <v>1766</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17340,13 +17355,13 @@
         <v>1278</v>
       </c>
       <c r="F446" t="s">
-        <v>1409</v>
+        <v>1389</v>
       </c>
       <c r="G446" t="s">
-        <v>1742</v>
+        <v>1747</v>
       </c>
       <c r="H446" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17366,13 +17381,13 @@
         <v>1293</v>
       </c>
       <c r="F447" t="s">
-        <v>1293</v>
+        <v>1277</v>
       </c>
       <c r="G447" t="s">
-        <v>1743</v>
+        <v>1748</v>
       </c>
       <c r="H447" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17395,10 +17410,10 @@
         <v>1336</v>
       </c>
       <c r="G448" t="s">
-        <v>1744</v>
+        <v>1749</v>
       </c>
       <c r="H448" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17418,13 +17433,13 @@
         <v>1331</v>
       </c>
       <c r="F449" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="G449" t="s">
-        <v>1745</v>
+        <v>1750</v>
       </c>
       <c r="H449" t="s">
-        <v>1795</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17444,13 +17459,13 @@
         <v>1278</v>
       </c>
       <c r="F450" t="s">
-        <v>1337</v>
+        <v>1382</v>
       </c>
       <c r="G450" t="s">
-        <v>1746</v>
+        <v>1751</v>
       </c>
       <c r="H450" t="s">
-        <v>1769</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17473,10 +17488,10 @@
         <v>1336</v>
       </c>
       <c r="G451" t="s">
-        <v>1747</v>
+        <v>1752</v>
       </c>
       <c r="H451" t="s">
-        <v>1777</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17496,13 +17511,13 @@
         <v>1284</v>
       </c>
       <c r="F452" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G452" t="s">
-        <v>1748</v>
+        <v>1753</v>
       </c>
       <c r="H452" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17522,13 +17537,13 @@
         <v>1293</v>
       </c>
       <c r="F453" t="s">
-        <v>1337</v>
+        <v>1438</v>
       </c>
       <c r="G453" t="s">
-        <v>1749</v>
+        <v>1754</v>
       </c>
       <c r="H453" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17548,13 +17563,13 @@
         <v>1321</v>
       </c>
       <c r="F454" t="s">
-        <v>1434</v>
+        <v>1439</v>
       </c>
       <c r="G454" t="s">
-        <v>1750</v>
+        <v>1755</v>
       </c>
       <c r="H454" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17574,13 +17589,13 @@
         <v>1293</v>
       </c>
       <c r="F455" t="s">
-        <v>1435</v>
+        <v>1440</v>
       </c>
       <c r="G455" t="s">
-        <v>1751</v>
+        <v>1756</v>
       </c>
       <c r="H455" t="s">
-        <v>1764</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17600,13 +17615,13 @@
         <v>1332</v>
       </c>
       <c r="F456" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G456" t="s">
-        <v>1752</v>
+        <v>1757</v>
       </c>
       <c r="H456" t="s">
-        <v>1782</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17626,13 +17641,13 @@
         <v>1333</v>
       </c>
       <c r="F457" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="G457" t="s">
-        <v>1753</v>
+        <v>1758</v>
       </c>
       <c r="H457" t="s">
-        <v>1787</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17652,13 +17667,13 @@
         <v>1278</v>
       </c>
       <c r="F458" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G458" t="s">
-        <v>1660</v>
+        <v>1665</v>
       </c>
       <c r="H458" t="s">
-        <v>1785</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17678,13 +17693,13 @@
         <v>1278</v>
       </c>
       <c r="F459" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="G459" t="s">
-        <v>1754</v>
+        <v>1759</v>
       </c>
       <c r="H459" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17707,10 +17722,10 @@
         <v>1277</v>
       </c>
       <c r="G460" t="s">
-        <v>1755</v>
+        <v>1760</v>
       </c>
       <c r="H460" t="s">
-        <v>1796</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17733,10 +17748,10 @@
         <v>1293</v>
       </c>
       <c r="G461" t="s">
-        <v>1756</v>
+        <v>1761</v>
       </c>
       <c r="H461" t="s">
-        <v>1761</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17756,13 +17771,13 @@
         <v>1329</v>
       </c>
       <c r="F462" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G462" t="s">
-        <v>1757</v>
+        <v>1762</v>
       </c>
       <c r="H462" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17782,13 +17797,13 @@
         <v>1321</v>
       </c>
       <c r="F463" t="s">
-        <v>1401</v>
+        <v>1372</v>
       </c>
       <c r="G463" t="s">
-        <v>1758</v>
+        <v>1763</v>
       </c>
       <c r="H463" t="s">
-        <v>1777</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -17808,13 +17823,13 @@
         <v>1303</v>
       </c>
       <c r="F464" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G464" t="s">
-        <v>1759</v>
+        <v>1764</v>
       </c>
       <c r="H464" t="s">
-        <v>1762</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -17837,10 +17852,10 @@
         <v>1277</v>
       </c>
       <c r="G465" t="s">
-        <v>1760</v>
+        <v>1765</v>
       </c>
       <c r="H465" t="s">
-        <v>1766</v>
+        <v>1771</v>
       </c>
     </row>
   </sheetData>
